--- a/biology/Biochimie/Carnitine_O-palmitoyltransférase/Carnitine_O-palmitoyltransférase.xlsx
+++ b/biology/Biochimie/Carnitine_O-palmitoyltransférase/Carnitine_O-palmitoyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carnitine_O-palmitoyltransf%C3%A9rase</t>
+          <t>Carnitine_O-palmitoyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La carnitine O-palmitoyltransférase (CPT) est une enzyme mitochondriale de type transférase (EC 2.3.1.21), impliquée dans le métabolisme de la palmitoylcarnitine en palmitoyl-CoA. 
 Une transférase proche est la carnitine acyltransférase.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carnitine_O-palmitoyltransf%C3%A9rase</t>
+          <t>Carnitine_O-palmitoyltransférase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Voie métabolique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette enzyme permet de transférer le groupe acyle entre une coenzyme A du cytosol et une autre coenzyme A située dans la matrice mitochondriale sous forme d'acylcarnitine à travers une porine de la membrane externe puis à travers une translocase de la membrane interne de la mitochondrie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carnitine_O-palmitoyltransf%C3%A9rase</t>
+          <t>Carnitine_O-palmitoyltransférase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>CPT chez l'humain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe quatre formes de la CPT chez l'humain : 
 les carnitine palmitoyltransferase I A (CPT1A), B (CPT1B) et C (CPT1B)
